--- a/outputs/HONULULU3.xlsx
+++ b/outputs/HONULULU3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is explicitly mentioned as a crucial starting point in the welcome text on the page. Abi's motivation to begin the course and obtain necessary information aligns with checking the syllabus. Additionally, Abi's comprehensive information processing style would lead them to seek out and read the syllabus before proceeding with the course content.</t>
+Why: The syllabus is explicitly mentioned as a necessary step to begin the course in the welcome text. Abi, who prefers to gather comprehensive information before starting a task, will recognize the importance of reading the syllabus to understand the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and their information processing style of gathering all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The welcome text on the page clearly instructs Abi to "please click on Syllabus in the left pane" to begin the course. This explicit direction aligns with Abi's motivation to get started and their preference for a comprehensive information processing style. The clear instruction reduces ambiguity and provides a direct path for Abi to follow.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the instructions are straightforward and provide a clear next step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus" with a detailed weekly schedule and relevant documents. This confirms to Abi that they are making progress toward their goal of getting started with the course. The detailed information available on this page aligns with Abi's comprehensive information processing style, providing the necessary details to understand the course structure and requirements clearly.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This clear and comprehensive presentation of the syllabus will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to accomplish tasks and their preference for a comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a logical next step for Abi to understand the course structure, expectations, and key dates. Given Abi's motivation to get started with the course and their comprehensive information processing style, they would recognize reading the syllabus as an essential step toward achieving the overall goal of beginning the course. The detailed weekly schedule and additional resources provided on the syllabus page further support this understanding.</t>
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before starting a task, will recognize the importance of reading the syllabus to get a complete understanding of what the course entails. This aligns with Abi's motivation to accomplish tasks and their information processing style of gathering all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The action of clicking on "Syllabus (PDF)" is clearly labeled and positioned under the "Course Syllabus" section. Abi's motivation to read the syllabus to get started with the course and their need for comprehensive information make this a logical step. The clear labeling helps Abi understand that this action will provide them with the detailed syllabus they need.</t>
+Why: The page clearly lists "Syllabus (PDF)" as an option under "Course Syllabus," indicating that clicking on it will provide the syllabus in PDF format. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style. The label is clear and directly related to the task of reading the syllabus, so Abi will know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course information, rules, response times, course content, learning outcomes, and tools. This comprehensive information aligns with Abi's motivation to get started with the course and their preference for a comprehensive understanding of what is required. The detailed syllabus ensures that Abi knows they have done the right thing and are making progress toward their goal.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and course tools. This comprehensive information will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed and organized presentation aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the information under "Modules" is a clear step toward achieving the overall use case of getting started with the course. The "Modules" section is likely to contain detailed information about the course structure and content, which is essential for Abi's comprehensive understanding and motivation to begin the course successfully. This aligns with Abi's preference for detailed, structured information to feel confident in their progress.</t>
+Why: The syllabus page provides a comprehensive overview of the course, including the course content and learning outcomes. Reading information under "Modules" will help Abi understand the structure and content of the course, which is essential for getting started. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style. Therefore, Abi will consider reading information under "Modules" as a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions or context about what the "Modules" section will contain or why Abi should click on it next. Given Abi's lower confidence in unfamiliar tasks and preference for clear, step-by-step guidance, they may not feel certain about clicking on "Modules" without more direction. They need more explicit instructions to feel confident that clicking on "Modules" is the right step to get started with the course.</t>
+Why: The current page does not provide explicit instructions or context about what "Modules" entails or why Abi should click on it next. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, they might not feel confident about clicking on "Modules" without clear guidance or instructions. Abi might need more explicit directions or context to understand that clicking on "Modules" is the next step to read the necessary information.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a detailed page listing various course modules, including overviews, experiments, quizzes, and assignments. This comprehensive layout provides Abi with the structured information they need to understand the course progression. The detailed breakdown of modules and associated tasks aligns with Abi's motivation to get started and their preference for comprehensive information processing. Abi will recognize that they have done the right thing and are making progress toward their goal of understanding and getting started with the course.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other relevant information. This comprehensive and organized presentation will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU3.xlsx
+++ b/outputs/HONULULU3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page explicitly mentions the importance of reading the syllabus, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
+Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to get started with the course and her comprehensive information processing style, as she would want to gather all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the step-by-step instructions provided to gather all necessary information before proceeding.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with her motivation to get started and her comprehensive information processing style, as she would follow the step-by-step instructions provided to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which contains detailed information about the course schedule and other relevant documents. This page provides comprehensive information, including a weekly schedule, which aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal of getting started with the course by finding and reviewing the syllabus.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive information provided aligns with her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a critical step in understanding the course structure, requirements, and schedule. Abi, who is motivated to accomplish tasks and prefers to gather comprehensive information, would consider reading the syllabus an essential step toward getting started with the course. The syllabus provides detailed information that aligns with Abi's need to form a complete understanding before proceeding.</t>
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. Given Abi's motivation to get started with the course and her comprehensive information processing style, she would consider reading the syllabus as an essential step toward achieving her overall goal. The syllabus provides detailed information that aligns with her need to gather all necessary details before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the link "Syllabus (PDF)" and places it prominently under the "Course Syllabus" section. Abi, who is motivated to gather all necessary information and prefers a comprehensive information processing style, will recognize that clicking on this link will provide her with the detailed syllabus document she needs to read. The clear labeling and placement make it evident what action to take next.</t>
+Why: The page clearly labels the link "Syllabus (PDF)" and places it under the "Course Syllabus" section. Given Abi's motivation to get started with the course and her comprehensive information processing style, she would recognize that clicking on this link is the next step to access the detailed syllabus in PDF format. The clear labeling and context provided on the page make it evident what she needs to do.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, course content, response times, prerequisites, and learning outcomes. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The detailed syllabus document provides all the information she needs, confirming that she did the right thing and is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course rules, response times, course content, learning outcomes, and course tools. This comprehensive information aligns with Abi's motivation to get started with the course and her need for detailed information to feel confident in her progress. The detailed syllabus ensures that she has all the necessary information to proceed, confirming that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The current page is the syllabus PDF, which provides an overview of the course, including fundamental rules, response times, course content, and learning outcomes. While this information is essential, it does not explicitly direct Abi to read information under "Modules" as a next step. Abi, who prefers comprehensive information and step-by-step instructions, might not immediately think to look under "Modules" without a clear prompt or instruction. Therefore, she might not consider this a step toward achieving the overall use case of getting started with the course.</t>
+Why: The current page provides detailed information about the course syllabus, including course rules, content, and tools. However, it does not explicitly mention the "Modules" section or indicate that reading information under "Modules" is a necessary step to get started with the course. Given Abi's motivation to follow clear instructions and her comprehensive information processing style, she would likely focus on the information presented in the syllabus rather than thinking about navigating to the "Modules" section without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page is the syllabus PDF, which does not provide explicit instructions or prompts to click on "Modules" next. Abi, who prefers comprehensive information and step-by-step instructions, might not immediately know to click on "Modules" without a clear indication. Additionally, Abi's low computer self-efficacy means she might hesitate to take actions without clear guidance, making it less likely she will know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide explicit instructions or context about clicking on "Modules." Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she may not know that she needs to click on "Modules" next. The page focuses on the syllabus content without guiding her to the next step, which could cause confusion for Abi.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other resources. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The structured and detailed layout of the modules page will help Abi understand that she is making progress toward her goal of getting started with the course and provides her with the information she needs to proceed.</t>
+Why: After clicking on "Modules," Abi lands on a page that lists all the course modules in a structured and detailed manner. This page provides comprehensive information about each module, including lessons, assignments, quizzes, and other relevant content. Given Abi's motivation to get started with the course and her comprehensive information processing style, she will recognize that she has done the right thing and is making progress toward her goal. The detailed layout ensures she has all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
